--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1989.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1989.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.021*"foreign" + 0.019*"bank" + 0.017*"import" + 0.016*"exchange" + 0.014*"may" + 0.013*"export" + 0.011*"currency" + 0.009*"payment" + 0.009*"account" + 0.009*"rate"</t>
-  </si>
-  <si>
-    <t>0.003*"exchange" + 0.002*"foreign" + 0.002*"bank" + 0.002*"may" + 0.002*"import" + 0.002*"currency" + 0.002*"payment" + 0.001*"export" + 0.001*"account" + 0.001*"percent"</t>
-  </si>
-  <si>
-    <t>0.002*"bank" + 0.002*"foreign" + 0.001*"exchange" + 0.001*"may" + 0.001*"import" + 0.001*"export" + 0.001*"payment" + 0.001*"currency" + 0.001*"percent" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.002*"foreign" + 0.001*"exchange" + 0.001*"export" + 0.001*"currency" + 0.001*"import" + 0.001*"bank" + 0.001*"may" + 0.001*"rate" + 0.001*"account" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.024*"foreign" + 0.020*"import" + 0.018*"exchange" + 0.017*"bank" + 0.013*"currency" + 0.011*"account" + 0.010*"may" + 0.010*"export" + 0.009*"rate" + 0.009*"payment"</t>
+    <t>0.038*"bank" + 0.036*"foreign" + 0.035*"may" + 0.023*"import" + 0.020*"exchange" + 0.019*"currency" + 0.018*"account" + 0.018*"gold" + 0.016*"fund" + 0.016*"payment"</t>
+  </si>
+  <si>
+    <t>0.045*"exchange" + 0.028*"rate" + 0.022*"subject" + 0.016*"change" + 0.014*"foreign" + 0.013*"trade" + 0.013*"ex" + 0.012*"transaction" + 0.012*"arrangement" + 0.011*"currency"</t>
+  </si>
+  <si>
+    <t>0.058*"import" + 0.051*"export" + 0.020*"good" + 0.018*"payment" + 0.016*"invisibles" + 0.016*"proceeds" + 0.015*"product" + 0.015*"certain" + 0.013*"december" + 0.012*"duty"</t>
+  </si>
+  <si>
+    <t>0.039*"bank" + 0.025*"percent" + 0.025*"rate" + 0.018*"year" + 0.018*"must" + 0.014*"central" + 0.012*"within" + 0.012*"day" + 0.011*"exchange" + 0.011*"republic"</t>
+  </si>
+  <si>
+    <t>0.036*"foreign" + 0.024*"abroad" + 0.019*"capital" + 0.019*"u" + 0.019*"account" + 0.019*"investment" + 0.019*"transfer" + 0.015*"country" + 0.015*"currency" + 0.013*"may"</t>
   </si>
 </sst>
 </file>
